--- a/project_figures_and_tables/COMP 4710 Project Tables for Background Section.xlsx
+++ b/project_figures_and_tables/COMP 4710 Project Tables for Background Section.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umanitoba-my.sharepoint.com/personal/yablonsb_myumanitoba_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{D0E66615-2B2A-6541-8CF7-F16DFDEEEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2064A404-F38E-634F-9F84-1C477A88FDF4}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{D0E66615-2B2A-6541-8CF7-F16DFDEEEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B87BC93-DB3D-4E40-BC60-E702869A9549}"/>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="-1860" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{B043AA50-874E-104C-B22E-C264A3B2C7A0}"/>
+    <workbookView xWindow="34120" yWindow="-1860" windowWidth="28040" windowHeight="16260" activeTab="3" xr2:uid="{B043AA50-874E-104C-B22E-C264A3B2C7A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table I" sheetId="1" r:id="rId1"/>
     <sheet name="Table II" sheetId="2" r:id="rId2"/>
     <sheet name="Table III" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>{a, b, e, c}</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -266,6 +273,1175 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fig 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fig 2'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fig 2'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98F3-4A42-B5D4-1AAD0A574EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1427871424"/>
+        <c:axId val="1448205504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1427871424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1448205504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1448205504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1427871424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AE9375-0EF7-C95C-38E5-AC5E385A5BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04082</cdr:x>
+      <cdr:y>0.14823</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31924</cdr:x>
+      <cdr:y>0.88053</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Oval 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3D94F8-4FA9-728D-4D2F-BE452C100602}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="355600" y="850900"/>
+          <a:ext cx="2425700" cy="4203700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37026</cdr:x>
+      <cdr:y>0.20796</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.69242</cdr:x>
+      <cdr:y>0.72788</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Oval 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A414FF7C-8E34-3DC6-E125-F3DC166A4D85}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3225800" y="1193800"/>
+          <a:ext cx="2806700" cy="2984500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74927</cdr:x>
+      <cdr:y>0.13496</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96939</cdr:x>
+      <cdr:y>0.45133</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Oval 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1B60CF-EAA6-230E-A3F6-739C64749484}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6527800" y="774700"/>
+          <a:ext cx="1917700" cy="1816100"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8BFD31-6433-7246-B156-8C04CD693F5F}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
@@ -886,4 +2062,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2048ED3A-C8E3-F040-915A-1E37A360F06C}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/project_figures_and_tables/COMP 4710 Project Tables for Background Section.xlsx
+++ b/project_figures_and_tables/COMP 4710 Project Tables for Background Section.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umanitoba-my.sharepoint.com/personal/yablonsb_myumanitoba_ca/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{D0E66615-2B2A-6541-8CF7-F16DFDEEEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B87BC93-DB3D-4E40-BC60-E702869A9549}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{D0E66615-2B2A-6541-8CF7-F16DFDEEEC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB5950E7-DB18-114F-931C-1B700AAE41FA}"/>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="-1860" windowWidth="28040" windowHeight="16260" activeTab="3" xr2:uid="{B043AA50-874E-104C-B22E-C264A3B2C7A0}"/>
+    <workbookView xWindow="34120" yWindow="-1860" windowWidth="28040" windowHeight="16260" activeTab="5" xr2:uid="{B043AA50-874E-104C-B22E-C264A3B2C7A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table I" sheetId="1" r:id="rId1"/>
     <sheet name="Table II" sheetId="2" r:id="rId2"/>
     <sheet name="Table III" sheetId="3" r:id="rId3"/>
     <sheet name="Fig 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Table IV" sheetId="5" r:id="rId5"/>
+    <sheet name="Table V" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -144,6 +146,33 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Silhouette</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>avg Silhouette</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2048ED3A-C8E3-F040-915A-1E37A360F06C}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -2198,4 +2227,298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9529EEB6-AAE6-8B42-9096-7F1B6EF11764}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>-0.9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0.4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29028F61-5D6B-734B-A9B1-E7556AC09AB2}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.54299999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>